--- a/otbor615.xlsx
+++ b/otbor615.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projects\gzrss\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA80E0CE-3E46-4017-B931-0CD922B8A795}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="537">
   <si>
     <t>№пп</t>
   </si>
@@ -39,26 +44,1638 @@
   </si>
   <si>
     <t>Конец подачи</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №015220000221800027</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=015220000221800027</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций для оказания услуг и (или) выполнения работ по капитальному ремонту общего имущества многоквартирных домов, расположенных на территории Омской области</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО СТРОИТЕЛЬСТВА И ЖИЛИЩНО-КОММУНАЛЬНОГО КОМПЛЕКСА ОМСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>Омская обл</t>
+  </si>
+  <si>
+    <t>08.12.2018 0:00</t>
+  </si>
+  <si>
+    <t>09.01.2019 9:00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010920000061800026</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010920000061800026</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на включение в реестр квалифицированных подрядных организаций для участия в электронном аукционе на оказание услуг по осуществлению строительного контроля над выполнением работ по капитальному ремонту общего имущества многоквартирных домов</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА, ЭНЕРГЕТИКИ И ГРАЖДАНСКОЙ ЗАЩИТЫ НАСЕЛЕНИЯ РЕСПУБЛИКИ МОРДОВИЯ</t>
+  </si>
+  <si>
+    <t>Мордовия Респ</t>
+  </si>
+  <si>
+    <t>07.12.2018 0:00</t>
+  </si>
+  <si>
+    <t>26.12.2018 23:59</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010920000061800025</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010920000061800025</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на включение в реестр квалифицированных подрядных организаций 
+для участия в электронном аукционе на оказание услуг и (или) выполнение работ по оценке технического состояния, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010920000061800024</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010920000061800024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предварительный отбор на включение в реестр квалифицированных подрядных организаций для участия в электронном аукционе на оказание услуг и (или) выполнение работ по оценке технического состояния многоквартирных домов, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, в том числе на ремонт (замену) лифтового оборудования
+</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010920000061800023</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010920000061800023</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на включение в реестр квалифицированных подрядных организаций для участия в электронном аукционе на выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 «Безопасность лифтов» (ТР ТС 011/2011), утвержденного решением Комиссии Таможенного союза от 18.10.2011№ 824</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010920000061800022</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010920000061800022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предварительный отбор на включение в реестр квалифицированных подрядных организаций для участия в электронном аукционе на оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия
+</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010920000061800021</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010920000061800021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предварительный отбор на включение в реестр квалифицированных подрядных организаций для участия в электронном аукционе на оказание услуг и (или) выполнение работ по ремонту или замене лифтового оборудования, признанного непригодным для эксплуатации, ремонту лифтовых шахт
+</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010920000061800020</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010920000061800020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предварительный отбор на включение в реестр квалифицированных подрядных организаций для участия в электронном аукционе на оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов
+</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010120000961800018</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010120000961800018</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах на оказание услуг и (или) выполнение работ по капитальному ремонту  общего имущества многоквартирных домов, расположенных на территории Республики Башкортостан</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА РЕСПУБЛИКИ БАШКОРТОСТАН</t>
+  </si>
+  <si>
+    <t>Башкортостан Респ</t>
+  </si>
+  <si>
+    <t>20.11.2018 0:00</t>
+  </si>
+  <si>
+    <t>17.12.2018 10:00</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №011620000531800006</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=011620000531800006</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг по осуществлению строительного контроля</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА И ЭНЕРГЕТИКИ РЕСПУБЛИКИ САХА (ЯКУТИЯ)</t>
+  </si>
+  <si>
+    <t>Саха /Якутия/ Респ</t>
+  </si>
+  <si>
+    <t>06.12.2018 0:00</t>
+  </si>
+  <si>
+    <t>26.12.2018 15:00</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №011620000531800005</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=011620000531800005</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 «Безопасность лифтов» (ТР ТС 011/2011), утвержденного решением Комиссии Таможенного союза от 18 октября 2011 г. №824 «О принятии технического регламента Таможенного союза «Безопасность лифтов»</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №011620000531800004</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=011620000531800004</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, в том числе ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №011620000531800003</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=011620000531800003</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по ремонту и замене лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт.</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №011620000531800002</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=011620000531800002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов.
+</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №011020000321800010</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=011020000321800010</t>
+  </si>
+  <si>
+    <t>Предварительный отбор по привлечению подрядных организаций для оказания услуг и (или) выполнения работ по капитальному ремонту общего имущества в многоквартирных домах на территории Республики Северная Осетия-Алания</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА, ТОПЛИВА И ЭНЕРГЕТИКИ РЕСПУБЛИКИ СЕВЕРНАЯ ОСЕТИЯ-АЛАНИЯ</t>
+  </si>
+  <si>
+    <t>Северная Осетия - Алания Респ</t>
+  </si>
+  <si>
+    <t>01.12.2018 0:00</t>
+  </si>
+  <si>
+    <t>21.12.2018 18:00</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №011020000321800009</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=011020000321800009</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №016720000551800029</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=016720000551800029</t>
+  </si>
+  <si>
+    <t>Предварительный отбор для последующего участия в электронных торгах в сфере оказания услуг и (или) выполнения работ по капитальному ремонту общего имущества в многоквартирных домах Тюменской области</t>
+  </si>
+  <si>
+    <t>ДЕПАРТАМЕНТ ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА ТЮМЕНСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>Тюменская обл</t>
+  </si>
+  <si>
+    <t>21.12.2018 9:00</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №016720000551800028</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=016720000551800028</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №037720000451800004</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=037720000451800004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">предварительный отбор подрядных организаций, претендующих на включение в реестр квалифицированных подрядных организаций, имеющих право принимать участие в закупках, предметом которых является выполнение работ по капитальному ремонту общего имущества многоквартирных домов на территории 
+Республики Алтай
+</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО РЕГИОНАЛЬНОГО РАЗВИТИЯ РЕСПУБЛИКИ АЛТАЙ</t>
+  </si>
+  <si>
+    <t>Алтай Респ</t>
+  </si>
+  <si>
+    <t>29.11.2018 0:00</t>
+  </si>
+  <si>
+    <t>19.12.2018 18:00</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №037720000451800003</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=037720000451800003</t>
+  </si>
+  <si>
+    <t>предварительный отбор подрядных организаций, претендующих на включение в реестр квалифицированных подрядных организаций, имеющих право принимать участие в закупках, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния многоквартирного дома, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №018420000181800002</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=018420000181800002</t>
+  </si>
+  <si>
+    <t>предварительный отбор подрядных организаций на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является осуществление строительного контроля</t>
+  </si>
+  <si>
+    <t>ДЕПАРТАМЕНТ СТРОИТЕЛЬСТВА, ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА, ЭНЕРГЕТИКИ И ТРАНСПОРТА НЕНЕЦКОГО АВТОНОМНОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t>Ненецкий АО</t>
+  </si>
+  <si>
+    <t>28.11.2018 0:00</t>
+  </si>
+  <si>
+    <t>18.12.2018 12:00</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №018420000181800001</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=018420000181800001</t>
+  </si>
+  <si>
+    <t>предварительный отбор подрядных организаций на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в в закупках, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния многоквартирного дома, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012820000361800018</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012820000361800018</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг по осуществлению строительного контроля.</t>
+  </si>
+  <si>
+    <t>ДЕПАРТАМЕНТ ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА АДМИНИСТРАЦИИ ВЛАДИМИРСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>Владимирская обл</t>
+  </si>
+  <si>
+    <t>18.12.2018 18:00</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012820000361800017</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012820000361800017</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 «Безопасность лифтов» (ТР ТС 011/2011),
+утвержденного решением Комиссии Таможенного союза от 18 октября 2011 г.
+№ 824 «О принятии технического регламента Таможенного союза «Безопасность
+лифтов»
+Орган</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012820000361800016</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012820000361800016</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по ремонту или замене лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014820000551800018</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014820000551800018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение 
+по оценке технического состояния многоквартирного дома, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, в том числе на ремонт (замену) лифтового оборудования
+</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА МОСКОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>Московская обл</t>
+  </si>
+  <si>
+    <t>26.09.2018 0:00</t>
+  </si>
+  <si>
+    <t>07.12.2018 23:59</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014820000551800014</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014820000551800014</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014820000551800013</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014820000551800013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 «Безопасность лифтов» (ТР ТС 011/2011), утвержденного решением Комиссии Таможенного союза от 18.10.2011 
+№ 824 «О принятии технического регламента Таможенного союза «Безопасность лифтов»
+</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014820000551800017</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014820000551800017</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014820000551800015</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014820000551800015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия 
+</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014820000551800016</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014820000551800016</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является осуществление строительного контроля</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014920000181800012</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014920000181800012</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО ЭНЕРГЕТИКИ И ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА МУРМАНСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>Мурманская обл</t>
+  </si>
+  <si>
+    <t>27.11.2018 0:00</t>
+  </si>
+  <si>
+    <t>18.12.2018 11:00</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014920000181800011</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014920000181800011</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №018020000371800010</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=018020000371800010</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций для оказания услуг и (или) выполнения работ по ремонту или замене лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО СТРОИТЕЛЬСТВА И ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА РЕСПУБЛИКИ ХАКАСИЯ</t>
+  </si>
+  <si>
+    <t>Хакасия Респ</t>
+  </si>
+  <si>
+    <t>17.12.2018 18:00</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №018020000371800009</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=018020000371800009</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций для оказания услуг и (или) выполнения работ по капитальному ремонту общего имущества многоквартирных домов</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №018020000371800008</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=018020000371800008</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций для оказания услуг и (или) выполнения работ по оценке технического состояния многоквартирного дома, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №016920000111800080</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=016920000111800080</t>
+  </si>
+  <si>
+    <t>Предварительный отбор по привлечению подрядных организаций, претендующих на включение в реестр квалифицированных подрядных организаций, имеющих право принимать участие в закупках, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества в многоквартирных домах, расположенных на территории Челябинской области, являющихся объектами культурного наследия, выявленными объектами культурного наследия</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО СТРОИТЕЛЬСТВА И ИНФРАСТРУКТУРЫ ЧЕЛЯБИНСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>Челябинская обл</t>
+  </si>
+  <si>
+    <t>24.11.2018 0:00</t>
+  </si>
+  <si>
+    <t>14.12.2018 5:00</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №016920000111800079</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=016920000111800079</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций, претендующих на включение в реестр квалифицированных подрядных организаций, имеющих право принимать участие в закупках, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, расположенных на территории Челябинской области, являющихся объектами культурного наследия, выявленными объектами культурного наследия, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №019020000261800002</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=019020000261800002</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора по привлечению подрядных организаций для оказания услуг и (или) выполнения работ по капитальному ремонту общего имущества в многоквартирных домах в Ямало-Ненецком автономном округе по предмету: выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 «Безопасность лифтов» (ТР ТС 011/2011), утвержденного решением Комиссии Таможенного союза от 18 октября 2011 г. № 824 «О принятии технического регламента Таможенного союза «Безопасность лифтов»выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 «Безопасность лифтов» (ТР ТС 011/2011), утвержденного решением Комиссии Таможенного союза от 18 октября 2011 г. № 824 «О принятии технического регламента Таможенного союза «Безопасность лифтов»</t>
+  </si>
+  <si>
+    <t>ДЕПАРТАМЕНТ ГОСУДАРСТВЕННОГО ЖИЛИЩНОГО НАДЗОРА ЯМАЛО-НЕНЕЦКОГО АВТОНОМНОГО ОКРУГА</t>
+  </si>
+  <si>
+    <t>Ямало-Ненецкий АО</t>
+  </si>
+  <si>
+    <t>14.12.2018 22:00</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012220000231800021</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012220000231800021</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций на оказание услуг по осуществлению строительного контроля</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА ХАБАРОВСКОГО КРАЯ</t>
+  </si>
+  <si>
+    <t>Хабаровский край</t>
+  </si>
+  <si>
+    <t>23.11.2018 0:00</t>
+  </si>
+  <si>
+    <t>13.12.2018 18:00</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012220000231800020</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012220000231800020</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций на выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 "Безопасность лифтов" (ТР ТС 011/2011), утвержденного решением Комиссии Таможенного союза от 18 октября 2011 г. № 824 "О принятии технического регламента Таможенного союза "Безопасность лифтов"</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012220000231800019</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012220000231800019</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций на оказание услуг и (или) выполнение работ по оценке технического состояния, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия, в том числе на ремонт или замену лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012220000231800018</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012220000231800018</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций на оказание услуг и (или) выполнение работ по оценке технического состояния многоквартирного дома, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, в том числе на ремонт или замену лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012220000231800017</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012220000231800017</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций на оказание услуг и (или) выполнение работ по ремонту или замене лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012220000231800016</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012220000231800016</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций на оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012220000231800015</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012220000231800015</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций на оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №013320000411800023</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=013320000411800023</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций на оказание услуг по осуществлению строительного контроля</t>
+  </si>
+  <si>
+    <t>ДЕПАРТАМЕНТ ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА ИВАНОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>Ивановская обл</t>
+  </si>
+  <si>
+    <t>13.12.2018 10:00</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №013320000411800022</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=013320000411800022</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций на выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 «Безопасность лифтов» (ТР ТС 011/2011), утвержденного решением Комиссии Таможенного союза от 18 октября 2011 г. N 824 «О принятии технического регламента Таможенного союза «Безопасность лифтов»</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №013320000411800021</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=013320000411800021</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций на оказание услуг и (или) выполнение работ по оценке технического состояния, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №013320000411800020</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=013320000411800020</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций на оказание услуг и (или) выполнение работ по оценке технического состояния многоквартирного дома, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №013320000411800019</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=013320000411800019</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций на оказание услуг и (или) выполнение работ по ремонту или замене лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт (ремонт (замена) лифтового оборудования)</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №013320000411800018</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=013320000411800018</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций на оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №013320000411800017</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=013320000411800017</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций на оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №015120001021800018</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=015120001021800018</t>
+  </si>
+  <si>
+    <t>Предварительный отбор</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА И ЭНЕРГЕТИКИ НОВОСИБИРСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>Новосибирская обл</t>
+  </si>
+  <si>
+    <t>13.12.2018 9:00</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №015120001021800017</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=015120001021800017</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №015120001021800016</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=015120001021800016</t>
+  </si>
+  <si>
+    <t>13.12.2018 0:00</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №015120001021800015</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=015120001021800015</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №015120001021800014</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=015120001021800014</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №015120001021800013</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=015120001021800013</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010520000181800020</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010520000181800020</t>
+  </si>
+  <si>
+    <t>О проведении предварительного отбора по привлечению подрядных организаций для оказания услуг и (или) выполнения работ по капитальному ремонту общего имущества в многоквартирных домах  в Республике Калмыкия.</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА И ЭНЕРГЕТИКИ РЕСПУБЛИКИ КАЛМЫКИЯ</t>
+  </si>
+  <si>
+    <t>Калмыкия Респ</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010520000181800019</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010520000181800019</t>
+  </si>
+  <si>
+    <t>О проведении предварительного отбора по привлечению подрядных организаций для оказания услуг и (или) выполнения работ по капитальному ремонту общего имущества в многоквартирных домах  в Республике Калмыкия</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010520000181800018</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010520000181800018</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010520000181800017</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010520000181800017</t>
+  </si>
+  <si>
+    <t>о проведении предварительного отбора по привлечению подрядных организаций для оказания услуг и (или) выполнения работ по капитальному ремонту общего имущества в многоквартирных домах  в Республике Калмыкия.</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010520000181800016</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010520000181800016</t>
+  </si>
+  <si>
+    <t>О проведении предварительного отбора по привлечению подрядных организаций для оказания услуг и (или) выполнения работ по капитальному ремонту общего имущества в многоквартирных домах в Республике Калмыкия</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014620000321800022</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014620000321800022</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг по осуществлению строительного контроля</t>
+  </si>
+  <si>
+    <t>УПРАВЛЕНИЕ ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА ЛИПЕЦКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>Липецкая обл</t>
+  </si>
+  <si>
+    <t>22.11.2018 0:00</t>
+  </si>
+  <si>
+    <t>12.12.2018 9:00</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014620000321800021</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014620000321800021</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 «Безопасность лифтов» (ТР ТС 011/2011), утвержденного решением Комиссии Таможенного союза от 18 октября 2011 г. N 824 "О принятии технического регламента Таможенного союза «Безопасность лифтов»</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014620000321800020</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014620000321800020</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014620000321800019</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014620000321800019</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния многоквартирного дома, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014620000321800018</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014620000321800018</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по ремонту или замене лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014620000321800017</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014620000321800017</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014620000321800016</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014620000321800016</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014020000451800015</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014020000451800015</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО ЭНЕРГЕТИКИ И ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА КИРОВСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>Кировская обл</t>
+  </si>
+  <si>
+    <t>12.12.2018 23:59</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014020000451800014</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014020000451800014</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014020000451800013</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014020000451800013</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций на оказание услуг и (или) выполнение работ по ремонту или замене лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014020000451800012</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014020000451800012</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010120000961800020</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010120000961800020</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах на оказание и (или) выполнение работ по оценке технического состояния многоквартирного дома, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия,  в том числе на ремонт (замену) лифтового оборудования, расположенных на территории Республики Башкортостан</t>
+  </si>
+  <si>
+    <t>21.11.2018 0:00</t>
+  </si>
+  <si>
+    <t>10.12.2018 16:00</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010120000961800019</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010120000961800019</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах на оказание и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия, расположенных на территории Республики Башкортостан</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012920000531804413</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012920000531804413</t>
+  </si>
+  <si>
+    <t>КОМИТЕТ ПО РЕГУЛИРОВАНИЮ КОНТРАКТНОЙ СИСТЕМЫ В СФЕРЕ ЗАКУПОК ВОЛГОГРАДСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>Волгоградская обл</t>
+  </si>
+  <si>
+    <t>10.12.2018 9:00</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012920000531804410</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012920000531804410</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 "Безопасность лифтов" (ТР ТС 011/2011), утвержденного решением Комиссии Таможенного союза от 18 октября 2011 г. N 824 "О принятии технического регламента Таможенного союза "Безопасность лифтов"</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012920000531804409</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012920000531804409</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012920000531804408</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012920000531804408</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния многоквартирного дома, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012920000531804407</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012920000531804407</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012920000531804405</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012920000531804405</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №012920000531804400</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=012920000531804400</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №017220000051800066</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=017220000051800066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предварительный отбор на право включения в реестр квалифицированных подрядных организаций Санкт-Петербурга, имеющих право принимать участие в электронных аукционах, предметом которых является выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 «Безопасность лифтов» (ТР ТС 011/2011), утвержденного решением Комиссии Таможенного союза от 18 октября 2011 года № 824 «О принятии технического регламента Таможенного союза «Безопасность лифтов»
+</t>
+  </si>
+  <si>
+    <t>ЖИЛИЩНЫЙ КОМИТЕТ</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №017220000051800065</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=017220000051800065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Предварительный отбор на право включения в реестр квалифицированных подрядных организаций Санкт-Петербурга, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по ремонту или замене лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт
+</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №017320000181800046</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=017320000181800046</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 «Безопасность лифтов» (ТР ТС 011/2011), утвержденного решением Комиссии Таможенного союза от 18 октября 2011 г. № 824 «О принятии технического регламента Таможенного союза «Безопасность лифтов» (№ 52/ПО-2018)</t>
+  </si>
+  <si>
+    <t>ДЕПАРТАМЕНТ КАПИТАЛЬНОГО РЕМОНТА ГОРОДА МОСКВЫ</t>
+  </si>
+  <si>
+    <t>Москва</t>
+  </si>
+  <si>
+    <t>10.12.2018 10:00</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №017320000181800045</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=017320000181800045</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по ремонту или замене лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт (№ 51/ПО-2018)</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №017320000181800044</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=017320000181800044</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия, в том числе на ремонт (замену) лифтового оборудования (№ 50/ПО-2018)</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №017320000181800043</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=017320000181800043</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия (№ 49/ПО-2018)</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №019120000301800021</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=019120000301800021</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг по осуществлению строительного контроля</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО ТЕРРИТОРИАЛЬНОГО РАЗВИТИЯ ЗАБАЙКАЛЬСКОГО КРАЯ</t>
+  </si>
+  <si>
+    <t>Забайкальский край</t>
+  </si>
+  <si>
+    <t>17.11.2018 0:00</t>
+  </si>
+  <si>
+    <t>14.12.2018 12:00</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №019120000301800020</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=019120000301800020</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 «Безопасность лифтов» (ТР ТС 011/2011), утвержденного решением Комиссии Таможенного союза от 18 октября 2011 года № 824 «О принятии технического регламента Таможенного союза «Безопасность лифтов»</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №019120000301800019</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=019120000301800019</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №019120000301800018</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=019120000301800018</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния многоквартирного дома, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014920000181800010</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014920000181800010</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по ремонту или замене лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт</t>
+  </si>
+  <si>
+    <t>10.12.2018 11:00</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014920000181800009</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014920000181800009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проведение предварительного отбора подрядных организаций на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг по осуществлению строительного контроля
+</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014920000181800008</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014920000181800008</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора подрядных организаций на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния многоквартирного дома, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014920000181800007</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014920000181800007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проведение предварительного отбора подрядных организаций на право включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества в многоквартирных домах в Мурманской области
+</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №019120000301800017</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=019120000301800017</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по ремонту или замене лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт</t>
+  </si>
+  <si>
+    <t>11.12.2018 12:00</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №019120000301800016</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=019120000301800016</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №019120000301800015</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=019120000301800015</t>
+  </si>
+  <si>
+    <t>Предварительный отбор подрядных организаций для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №014820000551800012</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=014820000551800012</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010320000251800020</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010320000251800020</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг по осуществлению строительного контроля.</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО СТРОИТЕЛЬСТВА И ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА РЕСПУБЛИКИ ДАГЕСТАН</t>
+  </si>
+  <si>
+    <t>Дагестан Респ</t>
+  </si>
+  <si>
+    <t>15.11.2018 0:00</t>
+  </si>
+  <si>
+    <t>14.12.2018 18:00</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010320000251800019</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010320000251800019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проведение предварительного отбора для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является выполнение работ по оценке соответствия лифтов требованиям технического регламента Таможенного союза 011/2011 "Безопасность лифтов" (ТР ТС 011/2011), утвержденного решением Комиссии Таможенного союза от 18 октября 2011 г. N 824 "О принятии технического регламента Таможенного союза 
+"Безопасность лифтов".
+</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010320000251800018</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010320000251800018</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия, в том числе на ремонт (замену) лифтового оборудования.</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010320000251800017</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010320000251800017</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по оценке технического состояния многоквартирного дома, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, в том числе на ремонт (замену) лифтового оборудования.</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010320000251800016</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010320000251800016</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по ремонту или замене лифтового оборудования, признанного непригодным для эксплуатации, ремонт лифтовых шахт.</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010320000251800015</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010320000251800015</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора для включения в реестр подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия.</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №010320000251800014</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=010320000251800014</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора для включения в реестр квалифицированных подрядных организаций, имеющих право принимать участие в электронных аукционах, предметом которых является оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов.</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №013720000091800016</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=013720000091800016</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов</t>
+  </si>
+  <si>
+    <t>МИНИСТЕРСТВО СТРОИТЕЛЬСТВА И ЖИЛИЩНО-КОММУНАЛЬНОГО ХОЗЯЙСТВА КАЛУЖСКОЙ ОБЛАСТИ</t>
+  </si>
+  <si>
+    <t>Калужская обл</t>
+  </si>
+  <si>
+    <t>02.11.2018 0:00</t>
+  </si>
+  <si>
+    <t>10.12.2018 17:00</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №013720000091800019</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=013720000091800019</t>
+  </si>
+  <si>
+    <t>Проведение предварительного отбора на оказание услуг и (или) выполнение работ по оценке технического состояния, разработке проектной документации на проведение капитального ремонта общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия, в том числе на ремонт (замену) лифтового оборудования</t>
+  </si>
+  <si>
+    <t>09.11.2018 0:00</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>Предварительный отбор (ПП РФ 615) №013720000091800018</t>
+  </si>
+  <si>
+    <t>http://zakupki.gov.ru/epz/order/notice/po615/view/common-info.html?regNumber=013720000091800018</t>
+  </si>
+  <si>
+    <t>Предварительный отбор на оказание услуг и (или) выполнение работ по капитальному ремонту общего имущества многоквартирных домов, являющихся объектами культурного наследия, выявленными объектами культурного наследия</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,26 +1706,38 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0">
-      <alignment shrinkToFit="1" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" shrinkToFit="1" vertical="center" wrapText="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="styleheader" xfId="1"/>
-    <cellStyle hidden="0" name="styleraws" xfId="2"/>
+    <cellStyle name="styleheader" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="styleraws" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,30 +2025,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="4"/>
-    <col customWidth="1" max="2" min="2" width="34.14"/>
-    <col customWidth="1" max="3" min="3" width="36.71"/>
-    <col customWidth="1" max="4" min="4" width="66.70999999999999"/>
-    <col customWidth="1" max="5" min="5" width="24.71"/>
-    <col customWidth="1" max="6" min="6" width="15.29"/>
-    <col customWidth="1" max="7" min="7" width="10.43"/>
-    <col customWidth="1" max="8" min="8" width="10.43"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +2069,2919 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>